--- a/data/using/_Combined_All_Data_Dissertation.xlsx
+++ b/data/using/_Combined_All_Data_Dissertation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ross\Work\Japan\Drones\Code\systems_thinking_game_evolved\data\using\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53583ABC-3A00-44A5-A312-6FE8275A9920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC08AC5-D1BE-491D-A849-6EB67799DC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="915" windowWidth="22890" windowHeight="14085" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="780" windowWidth="22890" windowHeight="10035" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ST Results" sheetId="1" r:id="rId1"/>
@@ -41931,7 +41931,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27"/>
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41946,9 +41946,8 @@
     <col min="13" max="14" width="3.85546875" customWidth="1"/>
     <col min="15" max="15" width="4.28515625" customWidth="1"/>
     <col min="16" max="20" width="3.85546875" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" customWidth="1"/>
-    <col min="22" max="24" width="5" customWidth="1"/>
-    <col min="25" max="27" width="3.7109375" customWidth="1"/>
+    <col min="21" max="24" width="3.7109375" customWidth="1"/>
+    <col min="25" max="27" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -42012,23 +42011,23 @@
       <c r="T1" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="W1" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="X1" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>1804</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>1805</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>1806</v>
-      </c>
-      <c r="Y1" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Z1" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>4.3</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -42093,25 +42092,25 @@
       <c r="T2" s="5">
         <v>30</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2">
+        <f>IF(Y2=0,0,IF(Y2&lt;=33,1,IF(Y2&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <f>IF(Z2=0,0,IF(Z2&lt;=33,1,IF(Z2&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>IF(AA2=0,0,IF(AA2&lt;=33,1,IF(AA2&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
         <v>17</v>
       </c>
-      <c r="W2" s="5">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <f>IF(V2=0,0,IF(V2&lt;=33,1,IF(V2&lt;=67, 2, 3)))</f>
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <f>IF(W2=0,0,IF(W2&lt;=33,1,IF(W2&lt;=67, 2, 3)))</f>
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <f>IF(X2=0,0,IF(X2&lt;=33,1,IF(X2&lt;=67, 2, 3)))</f>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -42177,26 +42176,26 @@
       <c r="T3" s="5">
         <v>22</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3">
+        <f>IF(Y3=0,0,IF(Y3&lt;=33,1,IF(Y3&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <f>IF(Z3=0,0,IF(Z3&lt;=33,1,IF(Z3&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f>IF(AA3=0,0,IF(AA3&lt;=33,1,IF(AA3&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5">
         <v>17</v>
       </c>
-      <c r="W3" s="5">
+      <c r="Z3" s="5">
         <v>33</v>
       </c>
-      <c r="X3" s="6">
+      <c r="AA3" s="6">
         <v>33</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y20" si="1">IF(V3=0,0,IF(V3&lt;=33,1,IF(V3&lt;=67, 2, 3)))</f>
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z20" si="2">IF(W3=0,0,IF(W3&lt;=33,1,IF(W3&lt;=67, 2, 3)))</f>
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA20" si="3">IF(X3=0,0,IF(X3&lt;=33,1,IF(X3&lt;=67, 2, 3)))</f>
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -42261,25 +42260,25 @@
       <c r="T4" s="5">
         <v>41</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4">
+        <f>IF(Y4=0,0,IF(Y4&lt;=33,1,IF(Y4&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <f>IF(Z4=0,0,IF(Z4&lt;=33,1,IF(Z4&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <f>IF(AA4=0,0,IF(AA4&lt;=33,1,IF(AA4&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
         <v>83</v>
       </c>
-      <c r="W4" s="5">
+      <c r="Z4" s="5">
         <v>67</v>
       </c>
-      <c r="X4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="3"/>
+      <c r="AA4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -42345,26 +42344,26 @@
       <c r="T5" s="5">
         <v>70</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5">
+        <f>IF(Y5=0,0,IF(Y5&lt;=33,1,IF(Y5&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <f>IF(Z5=0,0,IF(Z5&lt;=33,1,IF(Z5&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <f>IF(AA5=0,0,IF(AA5&lt;=33,1,IF(AA5&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="5">
         <v>17</v>
       </c>
-      <c r="W5" s="5">
+      <c r="Z5" s="5">
         <v>33</v>
       </c>
-      <c r="X5" s="6">
+      <c r="AA5" s="6">
         <v>33</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -42429,25 +42428,25 @@
       <c r="T6" s="5">
         <v>37</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6">
+        <f>IF(Y6=0,0,IF(Y6&lt;=33,1,IF(Y6&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <f>IF(Z6=0,0,IF(Z6&lt;=33,1,IF(Z6&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <f>IF(AA6=0,0,IF(AA6&lt;=33,1,IF(AA6&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
         <v>17</v>
       </c>
-      <c r="W6" s="5">
+      <c r="Z6" s="5">
         <v>33</v>
       </c>
-      <c r="X6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="3"/>
+      <c r="AA6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -42513,26 +42512,26 @@
       <c r="T7" s="5">
         <v>59</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7">
+        <f>IF(Y7=0,0,IF(Y7&lt;=33,1,IF(Y7&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <f>IF(Z7=0,0,IF(Z7&lt;=33,1,IF(Z7&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f>IF(AA7=0,0,IF(AA7&lt;=33,1,IF(AA7&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="Y7" s="5">
         <v>67</v>
       </c>
-      <c r="W7" s="5">
+      <c r="Z7" s="5">
         <v>33</v>
       </c>
-      <c r="X7" s="6">
+      <c r="AA7" s="6">
         <v>67</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="3"/>
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -42597,26 +42596,26 @@
       <c r="T8" s="5">
         <v>33</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8">
+        <f>IF(Y8=0,0,IF(Y8&lt;=33,1,IF(Y8&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <f>IF(Z8=0,0,IF(Z8&lt;=33,1,IF(Z8&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <f>IF(AA8=0,0,IF(AA8&lt;=33,1,IF(AA8&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5">
         <v>17</v>
       </c>
-      <c r="W8" s="5">
+      <c r="Z8" s="5">
         <v>67</v>
       </c>
-      <c r="X8" s="6">
+      <c r="AA8" s="6">
         <v>33</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -42681,26 +42680,26 @@
       <c r="T9" s="5">
         <v>44</v>
       </c>
-      <c r="V9" s="5">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5">
-        <v>0</v>
-      </c>
-      <c r="X9" s="6">
+      <c r="V9">
+        <f>IF(Y9=0,0,IF(Y9&lt;=33,1,IF(Y9&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>IF(Z9=0,0,IF(Z9&lt;=33,1,IF(Z9&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>IF(AA9=0,0,IF(AA9&lt;=33,1,IF(AA9&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
         <v>33</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -42765,25 +42764,25 @@
       <c r="T10" s="5">
         <v>56</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10">
+        <f>IF(Y10=0,0,IF(Y10&lt;=33,1,IF(Y10&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <f>IF(Z10=0,0,IF(Z10&lt;=33,1,IF(Z10&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <f>IF(AA10=0,0,IF(AA10&lt;=33,1,IF(AA10&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
         <v>100</v>
       </c>
-      <c r="W10" s="5">
+      <c r="Z10" s="5">
         <v>83</v>
       </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="3"/>
+      <c r="AA10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -42849,26 +42848,26 @@
       <c r="T11" s="5">
         <v>52</v>
       </c>
-      <c r="V11" s="5">
-        <v>0</v>
-      </c>
-      <c r="W11" s="5">
+      <c r="V11">
+        <f>IF(Y11=0,0,IF(Y11&lt;=33,1,IF(Y11&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f>IF(Z11=0,0,IF(Z11&lt;=33,1,IF(Z11&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <f>IF(AA11=0,0,IF(AA11&lt;=33,1,IF(AA11&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
         <v>17</v>
       </c>
-      <c r="X11" s="6">
+      <c r="AA11" s="6">
         <v>33</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -42933,26 +42932,26 @@
       <c r="T12" s="5">
         <v>67</v>
       </c>
-      <c r="V12" s="5">
-        <v>0</v>
-      </c>
-      <c r="W12" s="5">
+      <c r="V12">
+        <f>IF(Y12=0,0,IF(Y12&lt;=33,1,IF(Y12&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f>IF(Z12=0,0,IF(Z12&lt;=33,1,IF(Z12&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <f>IF(AA12=0,0,IF(AA12&lt;=33,1,IF(AA12&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
         <v>33</v>
       </c>
-      <c r="X12" s="6">
+      <c r="AA12" s="6">
         <v>100</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="3"/>
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -43017,26 +43016,26 @@
       <c r="T13" s="5">
         <v>33</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13">
+        <f>IF(Y13=0,0,IF(Y13&lt;=33,1,IF(Y13&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <f>IF(Z13=0,0,IF(Z13&lt;=33,1,IF(Z13&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f>IF(AA13=0,0,IF(AA13&lt;=33,1,IF(AA13&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="Y13" s="5">
         <v>50</v>
       </c>
-      <c r="W13" s="5">
+      <c r="Z13" s="5">
         <v>17</v>
       </c>
-      <c r="X13" s="6">
+      <c r="AA13" s="6">
         <v>100</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="3"/>
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -43101,25 +43100,25 @@
       <c r="T14" s="5">
         <v>30</v>
       </c>
-      <c r="V14" s="5">
-        <v>0</v>
-      </c>
-      <c r="W14" s="5">
-        <v>0</v>
-      </c>
-      <c r="X14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="3"/>
+      <c r="V14">
+        <f>IF(Y14=0,0,IF(Y14&lt;=33,1,IF(Y14&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f>IF(Z14=0,0,IF(Z14&lt;=33,1,IF(Z14&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f>IF(AA14=0,0,IF(AA14&lt;=33,1,IF(AA14&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -43185,26 +43184,26 @@
       <c r="T15" s="5">
         <v>33</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15">
+        <f>IF(Y15=0,0,IF(Y15&lt;=33,1,IF(Y15&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <f>IF(Z15=0,0,IF(Z15&lt;=33,1,IF(Z15&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <f>IF(AA15=0,0,IF(AA15&lt;=33,1,IF(AA15&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="Y15" s="5">
         <v>83</v>
       </c>
-      <c r="W15" s="5">
+      <c r="Z15" s="5">
         <v>50</v>
       </c>
-      <c r="X15" s="6">
+      <c r="AA15" s="6">
         <v>67</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="3"/>
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -43269,26 +43268,26 @@
       <c r="T16" s="5">
         <v>52</v>
       </c>
-      <c r="V16" s="5">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5">
-        <v>0</v>
-      </c>
-      <c r="X16" s="6">
+      <c r="V16">
+        <f>IF(Y16=0,0,IF(Y16&lt;=33,1,IF(Y16&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f>IF(Z16=0,0,IF(Z16&lt;=33,1,IF(Z16&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f>IF(AA16=0,0,IF(AA16&lt;=33,1,IF(AA16&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="6">
         <v>33</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -43353,26 +43352,26 @@
       <c r="T17" s="5">
         <v>52</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17">
+        <f>IF(Y17=0,0,IF(Y17&lt;=33,1,IF(Y17&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f>IF(Z17=0,0,IF(Z17&lt;=33,1,IF(Z17&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <f>IF(AA17=0,0,IF(AA17&lt;=33,1,IF(AA17&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="Y17" s="5">
         <v>33</v>
       </c>
-      <c r="W17" s="5">
+      <c r="Z17" s="5">
         <v>25</v>
       </c>
-      <c r="X17" s="6">
+      <c r="AA17" s="6">
         <v>100</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="3"/>
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
@@ -43437,25 +43436,25 @@
       <c r="T18" s="5">
         <v>59</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18">
+        <f>IF(Y18=0,0,IF(Y18&lt;=33,1,IF(Y18&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f>IF(Z18=0,0,IF(Z18&lt;=33,1,IF(Z18&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <f>IF(AA18=0,0,IF(AA18&lt;=33,1,IF(AA18&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
         <v>17</v>
       </c>
-      <c r="W18" s="5">
+      <c r="Z18" s="5">
         <v>33</v>
       </c>
-      <c r="X18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="3"/>
+      <c r="AA18" s="6">
         <v>0</v>
       </c>
     </row>
@@ -43521,26 +43520,26 @@
       <c r="T19" s="5">
         <v>56</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19">
+        <f>IF(Y19=0,0,IF(Y19&lt;=33,1,IF(Y19&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <f>IF(Z19=0,0,IF(Z19&lt;=33,1,IF(Z19&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>IF(AA19=0,0,IF(AA19&lt;=33,1,IF(AA19&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="Y19" s="5">
         <v>17</v>
       </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="6">
+      <c r="Z19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="6">
         <v>100</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="3"/>
-        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
@@ -43605,26 +43604,26 @@
       <c r="T20" s="5">
         <v>44</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20">
+        <f>IF(Y20=0,0,IF(Y20&lt;=33,1,IF(Y20&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <f>IF(Z20=0,0,IF(Z20&lt;=33,1,IF(Z20&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <f>IF(AA20=0,0,IF(AA20&lt;=33,1,IF(AA20&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="5">
         <v>17</v>
       </c>
-      <c r="W20" s="5">
+      <c r="Z20" s="5">
         <v>33</v>
       </c>
-      <c r="X20" s="6">
+      <c r="AA20" s="6">
         <v>33</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
